--- a/data/combined-analytics.xlsx
+++ b/data/combined-analytics.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>2013 (TBC…)</t>
   </si>
   <si>
     <t>With commissions</t>
-  </si>
-  <si>
-    <t>Cumulative Returns</t>
   </si>
   <si>
     <t>Without commissions</t>
@@ -38,16 +35,23 @@
   <si>
     <t>S&amp;P</t>
   </si>
+  <si>
+    <t>Cumulative:</t>
+  </si>
+  <si>
+    <t>Jarvis w/ Comm Returns</t>
+  </si>
+  <si>
+    <t>Jarvis w/o Comm Returns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -91,15 +95,27 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -107,8 +123,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,40 +309,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="101">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -270,6 +437,14 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -311,6 +486,14 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -644,7 +827,7 @@
   <dimension ref="A1:T259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="T99" sqref="T99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -652,68 +835,75 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15">
-        <f>B4*D4*F4*H4*J4</f>
-        <v>1.1226574433103502</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15">
-        <f>A4*C4*E4*G4*I4</f>
-        <v>2.2732573719306326</v>
+      <c r="B2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="24">
+        <f>(B4*D4*F4*H4*J4)-1</f>
+        <v>0.12265744331035022</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26">
+        <f>(A4*C4*E4*G4*I4)-1</f>
+        <v>1.2732573719306326</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2">
-        <f>L4*N4*P4*R4*T4</f>
-        <v>1.2615613968897581</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="30">
+        <f>(L4*N4*P4*R4*T4)-1</f>
+        <v>0.42143857852697053</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26">
+        <f>(M4*O4*Q4*S4*K4)-1</f>
+        <v>1.273257371930633</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -722,3251 +912,3298 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="J3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="12">
-        <f>1+A5</f>
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:J4" si="0">1+A5</f>
         <v>1.2645999999999999</v>
       </c>
-      <c r="B4" s="12">
-        <f>1+B5</f>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
         <v>1.5369961917400361</v>
       </c>
-      <c r="C4" s="12">
-        <f>1+C5</f>
+      <c r="C4" s="16">
+        <f t="shared" si="0"/>
         <v>1.1506000000000001</v>
       </c>
-      <c r="D4" s="12">
-        <f>1+D5</f>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
         <v>1.6389488875865936</v>
       </c>
-      <c r="E4" s="12">
-        <f>1+E5</f>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
         <v>1.0210999999999999</v>
       </c>
-      <c r="F4" s="12">
-        <f>1+F5</f>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
         <v>0.18962019793689244</v>
       </c>
-      <c r="G4" s="12">
-        <f>1+G5</f>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="H4" s="12">
-        <f>1+H5</f>
+      <c r="H4" s="17">
+        <f t="shared" si="0"/>
         <v>1.3195314943790437</v>
       </c>
-      <c r="I4" s="12">
-        <f>1+I5</f>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
         <v>1.319</v>
       </c>
-      <c r="J4" s="12">
-        <f>1+J5</f>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
         <v>1.7811672568321226</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f>1+L5</f>
+      <c r="K4" s="16">
+        <f t="shared" ref="K4" si="1">1+K5</f>
+        <v>1.2645999999999999</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" ref="L4" si="2">1+L5</f>
         <v>1.6092956006526946</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2">
-        <f>1+N5</f>
-        <v>1.6388407409191135</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <f>1+P5</f>
-        <v>0.21122567821294069</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <f>1+R5</f>
-        <v>1.2786558330059052</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <f>1+T5</f>
-        <v>1.7710688233375551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="11" customFormat="1">
-      <c r="A5" s="13">
+      <c r="M4" s="16">
+        <f t="shared" ref="M4" si="3">1+M5</f>
+        <v>1.1506000000000001</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4" si="4">1+N5</f>
+        <v>1.6639336526393891</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" ref="O4" si="5">1+O5</f>
+        <v>1.0210999999999999</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" ref="P4" si="6">1+P5</f>
+        <v>0.23132370337843899</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" ref="Q4" si="7">1+Q5</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="R4" s="17">
+        <f t="shared" ref="R4" si="8">1+R5</f>
+        <v>1.313030081987381</v>
+      </c>
+      <c r="S4" s="16">
+        <f t="shared" ref="S4" si="9">1+S5</f>
+        <v>1.319</v>
+      </c>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4" si="10">1+T5</f>
+        <v>1.7476781487464903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="A5" s="18">
         <v>0.2646</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="19">
         <f>XIRR(B7:B101,A7:A101)</f>
         <v>0.5369961917400361</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <v>0.15060000000000001</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <f>XIRR(D7:D87,C7:C87)</f>
         <v>0.63894888758659374</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="20">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="21">
         <f>XIRR(F7:F987,E7:E987)</f>
         <v>-0.81037980206310756</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="20">
         <v>0.16</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="21">
         <f>XIRR(H7:H987,G7:G987)</f>
         <v>0.31953149437904371</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="20">
         <v>0.31900000000000001</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="21">
         <f>XIRR(J7:J987,I7:I987)</f>
         <v>0.78116725683212263</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10">
+      <c r="K5" s="18">
+        <v>0.2646</v>
+      </c>
+      <c r="L5" s="19">
         <f>XIRR(L7:L101,K7:K101)</f>
         <v>0.60929560065269472</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10">
+      <c r="M5" s="20">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="N5" s="21">
         <f>XIRR(N7:N87,M7:M87)</f>
-        <v>0.63884074091911347</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10">
+        <v>0.66393365263938908</v>
+      </c>
+      <c r="O5" s="20">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="P5" s="21">
         <f>XIRR(P7:P987,O7:O987)</f>
-        <v>-0.78877432178705931</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10">
+        <v>-0.76867629662156101</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="R5" s="21">
         <f>XIRR(R7:R987,Q7:Q987)</f>
-        <v>0.27865583300590513</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10">
+        <v>0.31303008198738103</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="T5" s="21">
         <f>XIRR(T7:T987,S7:S987)</f>
-        <v>0.77106882333755511</v>
+        <v>0.7476781487464903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3">
+      <c r="A6" s="27">
         <v>2009</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="27">
         <v>2010</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="D6" s="28"/>
+      <c r="E6" s="27">
         <v>2011</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="28"/>
+      <c r="G6" s="27">
         <v>2012</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="J6" s="28"/>
+      <c r="K6" s="27">
         <v>2009</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
+      <c r="L6" s="28"/>
+      <c r="M6" s="27">
         <v>2010</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
+      <c r="N6" s="28"/>
+      <c r="O6" s="27">
         <v>2011</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="27">
         <v>2012</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>39814</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>512</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>40179</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <f>-1*B22</f>
         <v>5999.88</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>40544</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <f>-1*D43</f>
         <v>16035.78</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="14">
         <v>40909</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <f>-1*F66</f>
         <v>8844.19</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="14">
         <v>41275</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <f>-1*H63</f>
         <v>19482.32</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>39814</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>512</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="7">
         <v>40179</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <f>-1*L22</f>
         <v>6207.78</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="7">
         <v>40544</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="8">
         <f>-1*N43</f>
-        <v>16375.16</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>16583.060000000001</v>
+      </c>
+      <c r="Q7" s="14">
         <v>40909</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="31">
         <f>-1*P66</f>
-        <v>9455.7764000000006</v>
-      </c>
-      <c r="S7" s="1">
+        <v>10003.056399999999</v>
+      </c>
+      <c r="S7" s="14">
         <v>41275</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="31">
         <f>-1*R63</f>
-        <v>19765.895</v>
+        <v>20924.761400000003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>39834</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>1600</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>40183</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>600</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>40547</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>50</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>40918</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="7">
         <v>41276</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>250</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="7">
         <v>39834</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>1600</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="7">
         <v>40183</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>600</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="7">
         <v>40547</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>50</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="7">
         <v>40918</v>
       </c>
-      <c r="R8">
-        <v>100</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="R8" s="8">
+        <v>100</v>
+      </c>
+      <c r="S8" s="7">
         <v>41276</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>39916</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>450</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>40191</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>200</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>40554</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>50</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>40919</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>300</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>41281</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>50</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>39916</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>450</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="7">
         <v>40191</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>200</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="7">
         <v>40554</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="8">
         <v>50</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="7">
         <v>40919</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="8">
         <v>300</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="7">
         <v>41281</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>39980</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>700</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>40206</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>-260</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>40562</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>50</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>40926</v>
       </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
+      <c r="I10" s="7">
         <v>41282</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>250</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="7">
         <v>39980</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>700</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="7">
         <v>40206</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <v>-260</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="7">
         <v>40562</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="8">
         <v>50</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="7">
         <v>40926</v>
       </c>
-      <c r="R10">
-        <v>100</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="R10" s="8">
+        <v>100</v>
+      </c>
+      <c r="S10" s="7">
         <v>41282</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>39987</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>700</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>40221</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>-400</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>40568</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>60</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>40932</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7">
         <v>41288</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>50</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>39987</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>700</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <v>40221</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <v>-400</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="7">
         <v>40568</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="8">
         <v>60</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="7">
         <v>40932</v>
       </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="R11" s="8">
+        <v>100</v>
+      </c>
+      <c r="S11" s="7">
         <v>41288</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>40002</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>600</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>40231</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>400</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>40574</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>300</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>40939</v>
       </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="7">
         <v>41289</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>250</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>40002</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>600</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="7">
         <v>40231</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>400</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="7">
         <v>40574</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="8">
         <v>300</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="7">
         <v>40939</v>
       </c>
-      <c r="R12">
-        <v>100</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="R12" s="8">
+        <v>100</v>
+      </c>
+      <c r="S12" s="7">
         <v>41289</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>40010</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>500</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>40246</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>300</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>40575</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>60</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>40939</v>
       </c>
-      <c r="H13">
-        <v>150</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="8">
+        <v>150</v>
+      </c>
+      <c r="I13" s="7">
         <v>41296</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>50</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>40010</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>500</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <v>40246</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>300</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="7">
         <v>40575</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="8">
         <v>60</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="7">
         <v>40939</v>
       </c>
-      <c r="R13">
-        <v>150</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="R13" s="8">
+        <v>150</v>
+      </c>
+      <c r="S13" s="7">
         <v>41296</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>40018</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>-380</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>40246</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="8">
+        <v>100</v>
+      </c>
+      <c r="E14" s="7">
         <v>40582</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>60</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>40946</v>
       </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
         <v>41297</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>250</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <v>40018</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>-380</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="7">
         <v>40246</v>
       </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="N14" s="8">
+        <v>100</v>
+      </c>
+      <c r="O14" s="7">
         <v>40582</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="8">
         <v>60</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="7">
         <v>40946</v>
       </c>
-      <c r="R14">
-        <v>100</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="R14" s="8">
+        <v>100</v>
+      </c>
+      <c r="S14" s="7">
         <v>41297</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>40029</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>-966.48</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>40256</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>-121.05</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>40589</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>60</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>40946</v>
       </c>
-      <c r="H15">
-        <v>150</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="8">
+        <v>150</v>
+      </c>
+      <c r="I15" s="7">
         <v>41302</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>50</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>40029</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>-966.48</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="7">
         <v>40256</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
         <v>-121.05</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="7">
         <v>40589</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="8">
         <v>60</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="7">
         <v>40946</v>
       </c>
-      <c r="R15">
-        <v>150</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="R15" s="8">
+        <v>150</v>
+      </c>
+      <c r="S15" s="7">
         <v>41302</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>40112</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>400</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>40260</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>200</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>40597</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>60</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>40947</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>-700</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="7">
         <v>41303</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>250</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <v>40112</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>400</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="7">
         <v>40260</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <v>200</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="7">
         <v>40597</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="8">
         <v>60</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="7">
         <v>40947</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="8">
         <v>-700</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="7">
         <v>41303</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="1">
+      <c r="A17" s="7">
         <v>40120</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>-415</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>40266</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>-200</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>40603</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>40949</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="8">
         <v>-250</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="7">
         <v>41309</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>50</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="7">
         <v>40120</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>-415</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="7">
         <v>40266</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
         <v>-200</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="7">
         <v>40603</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="8">
         <v>60</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="7">
         <v>40949</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="8">
         <v>-250</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="7">
         <v>41309</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>40135</v>
       </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="8">
+        <v>150</v>
+      </c>
+      <c r="C18" s="7">
         <v>40274</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>200</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>40610</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>60</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>40961</v>
       </c>
-      <c r="H18">
-        <v>150</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" s="8">
+        <v>150</v>
+      </c>
+      <c r="I18" s="7">
         <v>41310</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>250</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="7">
         <v>40135</v>
       </c>
-      <c r="L18">
-        <v>150</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="L18" s="8">
+        <v>150</v>
+      </c>
+      <c r="M18" s="7">
         <v>40274</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="8">
         <v>200</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="7">
         <v>40610</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="8">
         <v>60</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="7">
         <v>40961</v>
       </c>
-      <c r="R18">
-        <v>150</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="R18" s="8">
+        <v>150</v>
+      </c>
+      <c r="S18" s="7">
         <v>41310</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>40149</v>
       </c>
-      <c r="B19">
-        <v>150</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="8">
+        <v>150</v>
+      </c>
+      <c r="C19" s="7">
         <v>40274</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>300</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>40617</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>60</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>40967</v>
       </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="8">
+        <v>100</v>
+      </c>
+      <c r="I19" s="7">
         <v>41316</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>50</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="7">
         <v>40149</v>
       </c>
-      <c r="L19">
-        <v>150</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="L19" s="8">
+        <v>150</v>
+      </c>
+      <c r="M19" s="7">
         <v>40274</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
         <v>300</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="7">
         <v>40617</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="8">
         <v>60</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="7">
         <v>40967</v>
       </c>
-      <c r="R19">
-        <v>100</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="R19" s="8">
+        <v>100</v>
+      </c>
+      <c r="S19" s="7">
         <v>41316</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>40163</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>200</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>40301</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>40624</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>60</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>40967</v>
       </c>
-      <c r="H20">
-        <v>150</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20" s="8">
+        <v>150</v>
+      </c>
+      <c r="I20" s="7">
         <v>41317</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>250</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="7">
         <v>40163</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>200</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="7">
         <v>40301</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
         <v>500</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="7">
         <v>40624</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="8">
         <v>60</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="7">
         <v>40967</v>
       </c>
-      <c r="R20">
-        <v>150</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="R20" s="8">
+        <v>150</v>
+      </c>
+      <c r="S20" s="7">
         <v>41317</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>40177</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>200</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>40338</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>800</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>40631</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>60</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>40974</v>
       </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="8">
+        <v>100</v>
+      </c>
+      <c r="I21" s="7">
         <v>41324</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>50</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="7">
         <v>40177</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>200</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="7">
         <v>40338</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
         <v>800</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="7">
         <v>40631</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="8">
         <v>60</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="7">
         <v>40974</v>
       </c>
-      <c r="R21">
-        <v>100</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="R21" s="8">
+        <v>100</v>
+      </c>
+      <c r="S21" s="7">
         <v>41324</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>40178</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>-5999.88</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>40338</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>-800</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>40638</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>60</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>40974</v>
       </c>
-      <c r="H22">
-        <v>150</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H22" s="8">
+        <v>150</v>
+      </c>
+      <c r="I22" s="7">
         <v>41330</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>50</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="9">
         <v>40178</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="10">
+        <f>-5999.88-207.9</f>
         <v>-6207.78</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="7">
         <v>40338</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
         <v>-800</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="7">
         <v>40638</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="8">
         <v>60</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="7">
         <v>40974</v>
       </c>
-      <c r="R22">
-        <v>150</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="R22" s="8">
+        <v>150</v>
+      </c>
+      <c r="S22" s="7">
         <v>41330</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>40346</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>500</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>40645</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>60</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>40977</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="8">
         <v>400</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="7">
         <v>41331</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>250</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="M23" s="1">
+      <c r="M23" s="7">
         <v>40346</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="8">
         <v>500</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="7">
         <v>40645</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="8">
         <v>60</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="7">
         <v>40977</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="8">
         <v>400</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="7">
         <v>41331</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>40351</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>800</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>40652</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>60</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>41002</v>
       </c>
-      <c r="H24">
-        <v>150</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24" s="8">
+        <v>150</v>
+      </c>
+      <c r="I24" s="7">
         <v>41337</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>50</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="M24" s="1">
+      <c r="M24" s="7">
         <v>40351</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="8">
         <v>800</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="7">
         <v>40652</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="8">
         <v>60</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="7">
         <v>41002</v>
       </c>
-      <c r="R24">
-        <v>150</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="8">
+        <v>150</v>
+      </c>
+      <c r="S24" s="7">
         <v>41337</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>40351</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>-800</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>40659</v>
       </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="8">
+        <v>100</v>
+      </c>
+      <c r="G25" s="7">
         <v>41009</v>
       </c>
-      <c r="H25">
-        <v>150</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="8">
+        <v>150</v>
+      </c>
+      <c r="I25" s="7">
         <v>41338</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>250</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="M25" s="1">
+      <c r="M25" s="7">
         <v>40351</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="8">
         <v>-800</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="7">
         <v>40659</v>
       </c>
-      <c r="P25">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="7">
         <v>41009</v>
       </c>
-      <c r="R25">
-        <v>150</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="8">
+        <v>150</v>
+      </c>
+      <c r="S25" s="7">
         <v>41338</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7">
         <v>40365</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>200</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>40666</v>
       </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="8">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7">
         <v>41009</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="8">
         <v>400</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="7">
         <v>41344</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>50</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="1">
+      <c r="L26" s="4"/>
+      <c r="M26" s="7">
         <v>40365</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="8">
         <v>200</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="7">
         <v>40666</v>
       </c>
-      <c r="P26">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="P26" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="7">
         <v>41009</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="8">
         <v>400</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="7">
         <v>41344</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7">
         <v>40367</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>200</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>40673</v>
       </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="8">
+        <v>100</v>
+      </c>
+      <c r="G27" s="7">
         <v>41016</v>
       </c>
-      <c r="H27">
-        <v>150</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="8">
+        <v>150</v>
+      </c>
+      <c r="I27" s="7">
         <v>41345</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>250</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="1">
+      <c r="L27" s="3"/>
+      <c r="M27" s="7">
         <v>40367</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="8">
         <v>200</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="7">
         <v>40673</v>
       </c>
-      <c r="P27">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="7">
         <v>41016</v>
       </c>
-      <c r="R27">
-        <v>150</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="R27" s="8">
+        <v>150</v>
+      </c>
+      <c r="S27" s="7">
         <v>41345</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>40393</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>500</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>40680</v>
       </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="8">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7">
         <v>41023</v>
       </c>
-      <c r="H28">
-        <v>150</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H28" s="8">
+        <v>150</v>
+      </c>
+      <c r="I28" s="7">
         <v>41351</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>50</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="M28" s="1">
+      <c r="M28" s="7">
         <v>40393</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="8">
         <v>500</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="7">
         <v>40680</v>
       </c>
-      <c r="P28">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="P28" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="7">
         <v>41023</v>
       </c>
-      <c r="R28">
-        <v>150</v>
-      </c>
-      <c r="S28" s="1">
+      <c r="R28" s="8">
+        <v>150</v>
+      </c>
+      <c r="S28" s="7">
         <v>41351</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7">
         <v>40402</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>-500</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>40687</v>
       </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="8">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7">
         <v>41024</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <v>300</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="7">
         <v>41352</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>250</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="1">
+      <c r="L29" s="5"/>
+      <c r="M29" s="7">
         <v>40402</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="8">
         <v>-500</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="7">
         <v>40687</v>
       </c>
-      <c r="P29">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="1">
+      <c r="P29" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="7">
         <v>41024</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="8">
         <v>300</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="7">
         <v>41352</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>40402</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>-100</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>40695</v>
       </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="8">
+        <v>100</v>
+      </c>
+      <c r="G30" s="7">
         <v>41043</v>
       </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="I30" s="7">
         <v>41358</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>50</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="M30" s="1">
+      <c r="M30" s="7">
         <v>40402</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="8">
         <v>-100</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="7">
         <v>40695</v>
       </c>
-      <c r="P30">
-        <v>100</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="P30" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="7">
         <v>41043</v>
       </c>
-      <c r="R30">
-        <v>100</v>
-      </c>
-      <c r="S30" s="1">
+      <c r="R30" s="8">
+        <v>100</v>
+      </c>
+      <c r="S30" s="7">
         <v>41358</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>40420</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>1200</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>40695</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="8">
         <v>750</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="7">
         <v>41044</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="8">
         <v>200</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="7">
         <v>41359</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>250</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="M31" s="1">
+      <c r="M31" s="7">
         <v>40420</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="8">
         <v>1200</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="7">
         <v>40695</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="8">
         <v>750</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="7">
         <v>41044</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="8">
         <v>200</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="7">
         <v>41359</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>40436</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>75</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>40701</v>
       </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="8">
+        <v>100</v>
+      </c>
+      <c r="G32" s="7">
         <v>41044</v>
       </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="H32" s="8">
+        <v>100</v>
+      </c>
+      <c r="I32" s="7">
         <v>41365</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>50</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="M32" s="1">
+      <c r="M32" s="7">
         <v>40436</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="8">
         <v>75</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="7">
         <v>40701</v>
       </c>
-      <c r="P32">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="7">
         <v>41044</v>
       </c>
-      <c r="R32">
-        <v>100</v>
-      </c>
-      <c r="S32" s="1">
+      <c r="R32" s="8">
+        <v>100</v>
+      </c>
+      <c r="S32" s="7">
         <v>41365</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
         <v>40436</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>75</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>40702</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>600</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="7">
         <v>41045</v>
       </c>
-      <c r="H33">
-        <v>100</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="H33" s="8">
+        <v>100</v>
+      </c>
+      <c r="I33" s="7">
         <v>41366</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>250</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="M33" s="1">
+      <c r="M33" s="7">
         <v>40436</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="8">
         <v>75</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="7">
         <v>40702</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="8">
         <v>600</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="7">
         <v>41045</v>
       </c>
-      <c r="R33">
-        <v>100</v>
-      </c>
-      <c r="S33" s="1">
+      <c r="R33" s="8">
+        <v>100</v>
+      </c>
+      <c r="S33" s="7">
         <v>41366</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1"/>
-      <c r="C34" s="1">
+      <c r="C34" s="7">
         <v>40436</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>75</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>40708</v>
       </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F34" s="8">
+        <v>100</v>
+      </c>
+      <c r="G34" s="7">
         <v>41045</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="8">
         <v>200</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="7">
         <v>41372</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="8">
         <v>50</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="M34" s="1">
+      <c r="M34" s="7">
         <v>40436</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="8">
         <v>75</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="7">
         <v>40708</v>
       </c>
-      <c r="P34">
-        <v>100</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="P34" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7">
         <v>41045</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="8">
         <v>200</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="7">
         <v>41372</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1"/>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>40464</v>
       </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="8">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
         <v>40715</v>
       </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F35" s="8">
+        <v>100</v>
+      </c>
+      <c r="G35" s="7">
         <v>41045</v>
       </c>
-      <c r="H35">
-        <v>100</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
+      <c r="I35" s="7">
         <v>41373</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>250</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="M35" s="1">
+      <c r="M35" s="7">
         <v>40464</v>
       </c>
-      <c r="N35">
-        <v>100</v>
-      </c>
-      <c r="O35" s="1">
+      <c r="N35" s="8">
+        <v>100</v>
+      </c>
+      <c r="O35" s="7">
         <v>40715</v>
       </c>
-      <c r="P35">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="7">
         <v>41045</v>
       </c>
-      <c r="R35">
-        <v>100</v>
-      </c>
-      <c r="S35" s="1">
+      <c r="R35" s="8">
+        <v>100</v>
+      </c>
+      <c r="S35" s="7">
         <v>41373</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1"/>
-      <c r="C36" s="1">
+      <c r="C36" s="7">
         <v>40477</v>
       </c>
-      <c r="D36">
-        <v>150</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="8">
+        <v>150</v>
+      </c>
+      <c r="E36" s="7">
         <v>40722</v>
       </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="8">
+        <v>100</v>
+      </c>
+      <c r="G36" s="7">
         <v>41046</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="8">
         <v>200</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="7">
         <v>41379</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>50</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="M36" s="1">
+      <c r="M36" s="7">
         <v>40477</v>
       </c>
-      <c r="N36">
-        <v>150</v>
-      </c>
-      <c r="O36" s="1">
+      <c r="N36" s="8">
+        <v>150</v>
+      </c>
+      <c r="O36" s="7">
         <v>40722</v>
       </c>
-      <c r="P36">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="7">
         <v>41046</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="8">
         <v>200</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="7">
         <v>41379</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1"/>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>40477</v>
       </c>
-      <c r="D37">
-        <v>150</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="8">
+        <v>150</v>
+      </c>
+      <c r="E37" s="7">
         <v>40730</v>
       </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="8">
+        <v>100</v>
+      </c>
+      <c r="G37" s="7">
         <v>41050</v>
       </c>
-      <c r="H37">
-        <v>100</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
+      <c r="I37" s="7">
         <v>41380</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="8">
         <v>250</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="M37" s="1">
+      <c r="M37" s="7">
         <v>40477</v>
       </c>
-      <c r="N37">
-        <v>150</v>
-      </c>
-      <c r="O37" s="1">
+      <c r="N37" s="8">
+        <v>150</v>
+      </c>
+      <c r="O37" s="7">
         <v>40730</v>
       </c>
-      <c r="P37">
-        <v>100</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="7">
         <v>41050</v>
       </c>
-      <c r="R37">
-        <v>100</v>
-      </c>
-      <c r="S37" s="1">
+      <c r="R37" s="8">
+        <v>100</v>
+      </c>
+      <c r="S37" s="7">
         <v>41380</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1"/>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>40490</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <v>-200</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="7">
         <v>40736</v>
       </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="8">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7">
         <v>41052</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="8">
         <v>-150</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="7">
         <v>41383</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="8">
         <v>-2500</v>
       </c>
       <c r="K38" s="1"/>
-      <c r="M38" s="1">
+      <c r="M38" s="7">
         <v>40490</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="8">
         <v>-200</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="7">
         <v>40736</v>
       </c>
-      <c r="P38">
-        <v>100</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="P38" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="7">
         <v>41052</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="8">
         <v>-150</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="7">
         <v>41383</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="8">
         <v>-2500</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1"/>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>40491</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>400</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="7">
         <v>40737</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <v>-300</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="7">
         <v>41054</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="8">
         <v>-300</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="7">
         <v>41388</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="8">
         <v>1000</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="M39" s="1">
+      <c r="M39" s="7">
         <v>40491</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="8">
         <v>400</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="7">
         <v>40737</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="8">
         <v>-300</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="7">
         <v>41054</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="8">
         <v>-300</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="7">
         <v>41388</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1"/>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>40526</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>40</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>40750</v>
       </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="F40" s="8">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7">
         <v>41064</v>
       </c>
-      <c r="H40">
-        <v>150</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="H40" s="8">
+        <v>150</v>
+      </c>
+      <c r="I40" s="7">
         <v>41400</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="8">
         <v>100</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="M40" s="1">
+      <c r="M40" s="7">
         <v>40526</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="8">
         <v>40</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="7">
         <v>40750</v>
       </c>
-      <c r="P40">
-        <v>100</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="P40" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="7">
         <v>41064</v>
       </c>
-      <c r="R40">
-        <v>150</v>
-      </c>
-      <c r="S40" s="1">
+      <c r="R40" s="8">
+        <v>150</v>
+      </c>
+      <c r="S40" s="7">
         <v>41400</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1"/>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>40533</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <v>40</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>40757</v>
       </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="F41" s="8">
+        <v>100</v>
+      </c>
+      <c r="G41" s="7">
         <v>41064</v>
       </c>
-      <c r="H41">
-        <v>150</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="H41" s="8">
+        <v>150</v>
+      </c>
+      <c r="I41" s="7">
         <v>41401</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="8">
         <v>300</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="M41" s="1">
+      <c r="M41" s="7">
         <v>40533</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="8">
         <v>40</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="7">
         <v>40757</v>
       </c>
-      <c r="P41">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="P41" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="7">
         <v>41064</v>
       </c>
-      <c r="R41">
-        <v>150</v>
-      </c>
-      <c r="S41" s="1">
+      <c r="R41" s="8">
+        <v>150</v>
+      </c>
+      <c r="S41" s="7">
         <v>41401</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1"/>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>40540</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>40</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>40758</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="8">
         <v>200</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="7">
         <v>41065</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="8">
         <v>250</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="7">
         <v>41407</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="8">
         <v>100</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="M42" s="1">
+      <c r="M42" s="7">
         <v>40540</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="8">
         <v>40</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="7">
         <v>40758</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="8">
         <v>200</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="7">
         <v>41065</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="8">
         <v>250</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="7">
         <v>41407</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1"/>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
         <v>40543</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="13">
         <v>-16035.78</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>40764</v>
       </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="F43" s="8">
+        <v>100</v>
+      </c>
+      <c r="G43" s="7">
         <v>41072</v>
       </c>
-      <c r="H43">
-        <v>150</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="H43" s="8">
+        <v>150</v>
+      </c>
+      <c r="I43" s="7">
         <v>41408</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="8">
         <v>300</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="M43" s="1">
+      <c r="M43" s="9">
         <v>40543</v>
       </c>
-      <c r="N43" s="7">
-        <v>-16375.16</v>
-      </c>
-      <c r="O43" s="1">
+      <c r="N43" s="13">
+        <f>-16035.78-207.9-339.38</f>
+        <v>-16583.060000000001</v>
+      </c>
+      <c r="O43" s="7">
         <v>40764</v>
       </c>
-      <c r="P43">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="1">
+      <c r="P43" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="7">
         <v>41072</v>
       </c>
-      <c r="R43">
-        <v>150</v>
-      </c>
-      <c r="S43" s="1">
+      <c r="R43" s="8">
+        <v>150</v>
+      </c>
+      <c r="S43" s="7">
         <v>41408</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>40771</v>
       </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="F44" s="8">
+        <v>100</v>
+      </c>
+      <c r="G44" s="7">
         <v>41079</v>
       </c>
-      <c r="H44">
-        <v>150</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="H44" s="8">
+        <v>150</v>
+      </c>
+      <c r="I44" s="7">
         <v>41414</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="8">
         <v>100</v>
       </c>
       <c r="K44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="1">
+      <c r="O44" s="7">
         <v>40771</v>
       </c>
-      <c r="P44">
-        <v>100</v>
-      </c>
-      <c r="Q44" s="1">
+      <c r="P44" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="7">
         <v>41079</v>
       </c>
-      <c r="R44">
-        <v>150</v>
-      </c>
-      <c r="S44" s="1">
+      <c r="R44" s="8">
+        <v>150</v>
+      </c>
+      <c r="S44" s="7">
         <v>41414</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>40774</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="8">
         <v>400</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="7">
         <v>41080</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="8">
         <v>500</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="7">
         <v>41415</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <v>300</v>
       </c>
       <c r="K45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="O45" s="1">
+      <c r="O45" s="7">
         <v>40774</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="8">
         <v>400</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="7">
         <v>41080</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="8">
         <v>500</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="7">
         <v>41415</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="E46" s="1">
+      <c r="E46" s="7">
         <v>40774</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="8">
         <v>400</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="7">
         <v>41100</v>
       </c>
-      <c r="H46">
-        <v>150</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="H46" s="8">
+        <v>150</v>
+      </c>
+      <c r="I46" s="7">
         <v>41422</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="8">
         <v>100</v>
       </c>
       <c r="K46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="O46" s="1">
+      <c r="O46" s="7">
         <v>40774</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="8">
         <v>400</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="7">
         <v>41100</v>
       </c>
-      <c r="R46">
-        <v>150</v>
-      </c>
-      <c r="S46" s="1">
+      <c r="R46" s="8">
+        <v>150</v>
+      </c>
+      <c r="S46" s="7">
         <v>41422</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="E47" s="1">
+      <c r="E47" s="7">
         <v>40778</v>
       </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="F47" s="8">
+        <v>100</v>
+      </c>
+      <c r="G47" s="7">
         <v>41107</v>
       </c>
-      <c r="H47">
-        <v>150</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="H47" s="8">
+        <v>150</v>
+      </c>
+      <c r="I47" s="7">
         <v>41423</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="8">
         <v>300</v>
       </c>
       <c r="K47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="O47" s="1">
+      <c r="O47" s="7">
         <v>40778</v>
       </c>
-      <c r="P47">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="1">
+      <c r="P47" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="7">
         <v>41107</v>
       </c>
-      <c r="R47">
-        <v>150</v>
-      </c>
-      <c r="S47" s="1">
+      <c r="R47" s="8">
+        <v>150</v>
+      </c>
+      <c r="S47" s="7">
         <v>41423</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="E48" s="1">
+      <c r="E48" s="7">
         <v>40822</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="8">
         <v>800</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="7">
         <v>41142</v>
       </c>
-      <c r="H48">
-        <v>150</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="H48" s="8">
+        <v>150</v>
+      </c>
+      <c r="I48" s="7">
         <v>41428</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="8">
         <v>100</v>
       </c>
       <c r="K48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="O48" s="1">
+      <c r="O48" s="7">
         <v>40822</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="8">
         <v>800</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="7">
         <v>41142</v>
       </c>
-      <c r="R48">
-        <v>150</v>
-      </c>
-      <c r="S48" s="1">
+      <c r="R48" s="8">
+        <v>150</v>
+      </c>
+      <c r="S48" s="7">
         <v>41428</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="E49" s="1">
+      <c r="E49" s="7">
         <v>40822</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="8">
         <v>800</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="7">
         <v>41149</v>
       </c>
-      <c r="H49">
-        <v>150</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="H49" s="8">
+        <v>150</v>
+      </c>
+      <c r="I49" s="7">
         <v>41429</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="8">
         <v>300</v>
       </c>
       <c r="K49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="O49" s="1">
+      <c r="O49" s="7">
         <v>40822</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="8">
         <v>800</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="7">
         <v>41149</v>
       </c>
-      <c r="R49">
-        <v>150</v>
-      </c>
-      <c r="S49" s="1">
+      <c r="R49" s="8">
+        <v>150</v>
+      </c>
+      <c r="S49" s="7">
         <v>41429</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="E50" s="1">
+      <c r="E50" s="7">
         <v>40827</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="8">
         <v>-800</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="7">
         <v>41157</v>
       </c>
-      <c r="H50">
-        <v>150</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="H50" s="8">
+        <v>150</v>
+      </c>
+      <c r="I50" s="7">
         <v>41435</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="8">
         <v>100</v>
       </c>
       <c r="K50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="O50" s="1">
+      <c r="O50" s="7">
         <v>40827</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="8">
         <v>-800</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="7">
         <v>41157</v>
       </c>
-      <c r="R50">
-        <v>150</v>
-      </c>
-      <c r="S50" s="1">
+      <c r="R50" s="8">
+        <v>150</v>
+      </c>
+      <c r="S50" s="7">
         <v>41435</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="E51" s="1">
+      <c r="E51" s="7">
         <v>40829</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="8">
         <v>700</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="7">
         <v>41163</v>
       </c>
-      <c r="H51">
-        <v>150</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="H51" s="8">
+        <v>150</v>
+      </c>
+      <c r="I51" s="7">
         <v>41436</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="8">
         <v>350</v>
       </c>
       <c r="K51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="O51" s="1">
+      <c r="O51" s="7">
         <v>40829</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="8">
         <v>700</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="7">
         <v>41163</v>
       </c>
-      <c r="R51">
-        <v>150</v>
-      </c>
-      <c r="S51" s="1">
+      <c r="R51" s="8">
+        <v>150</v>
+      </c>
+      <c r="S51" s="7">
         <v>41436</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="E52" s="1">
+      <c r="E52" s="7">
         <v>40841</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="8">
         <v>300</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="7">
         <v>41170</v>
       </c>
-      <c r="H52">
-        <v>150</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="H52" s="8">
+        <v>150</v>
+      </c>
+      <c r="I52" s="7">
         <v>41442</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="8">
         <v>100</v>
       </c>
       <c r="K52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="O52" s="1">
+      <c r="O52" s="7">
         <v>40841</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="8">
         <v>300</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="7">
         <v>41170</v>
       </c>
-      <c r="R52">
-        <v>150</v>
-      </c>
-      <c r="S52" s="1">
+      <c r="R52" s="8">
+        <v>150</v>
+      </c>
+      <c r="S52" s="7">
         <v>41442</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="E53" s="1">
+      <c r="E53" s="7">
         <v>40841</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="8">
         <v>300</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="7">
         <v>41177</v>
       </c>
-      <c r="H53">
-        <v>150</v>
-      </c>
-      <c r="I53" s="1">
+      <c r="H53" s="8">
+        <v>150</v>
+      </c>
+      <c r="I53" s="7">
         <v>41443</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="8">
         <v>350</v>
       </c>
       <c r="K53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="O53" s="1">
+      <c r="O53" s="7">
         <v>40841</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="8">
         <v>300</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="7">
         <v>41177</v>
       </c>
-      <c r="R53">
-        <v>150</v>
-      </c>
-      <c r="S53" s="1">
+      <c r="R53" s="8">
+        <v>150</v>
+      </c>
+      <c r="S53" s="7">
         <v>41443</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="E54" s="1">
+      <c r="E54" s="7">
         <v>40843</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="8">
         <v>300</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="7">
         <v>41184</v>
       </c>
-      <c r="H54">
-        <v>150</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="H54" s="8">
+        <v>150</v>
+      </c>
+      <c r="I54" s="7">
         <v>41449</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="8">
         <v>100</v>
       </c>
       <c r="K54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="O54" s="1">
+      <c r="O54" s="7">
         <v>40843</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="8">
         <v>300</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="7">
         <v>41184</v>
       </c>
-      <c r="R54">
-        <v>150</v>
-      </c>
-      <c r="S54" s="1">
+      <c r="R54" s="8">
+        <v>150</v>
+      </c>
+      <c r="S54" s="7">
         <v>41449</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="E55" s="1">
+      <c r="E55" s="7">
         <v>40843</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="8">
         <v>300</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="7">
         <v>41192</v>
       </c>
-      <c r="H55">
-        <v>150</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="H55" s="8">
+        <v>150</v>
+      </c>
+      <c r="I55" s="7">
         <v>41450</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="8">
         <v>350</v>
       </c>
       <c r="K55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="O55" s="1">
+      <c r="O55" s="7">
         <v>40843</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="8">
         <v>300</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55" s="7">
         <v>41192</v>
       </c>
-      <c r="R55">
-        <v>150</v>
-      </c>
-      <c r="S55" s="1">
+      <c r="R55" s="8">
+        <v>150</v>
+      </c>
+      <c r="S55" s="7">
         <v>41450</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="E56" s="1">
+      <c r="E56" s="7">
         <v>40844</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="8">
         <v>300</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <v>41198</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="8">
         <v>-200</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="7">
         <v>41456</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="8">
         <v>100</v>
       </c>
       <c r="K56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="O56" s="1">
+      <c r="O56" s="7">
         <v>40844</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="8">
         <v>300</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="7">
         <v>41198</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="8">
         <v>-200</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="7">
         <v>41456</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="E57" s="1">
+      <c r="E57" s="7">
         <v>40844</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="8">
         <v>200</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="7">
         <v>41233</v>
       </c>
-      <c r="H57">
-        <v>150</v>
-      </c>
-      <c r="I57" s="1">
+      <c r="H57" s="8">
+        <v>150</v>
+      </c>
+      <c r="I57" s="7">
         <v>41457</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="8">
         <v>350</v>
       </c>
       <c r="K57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="O57" s="1">
+      <c r="O57" s="7">
         <v>40844</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="8">
         <v>200</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="7">
         <v>41233</v>
       </c>
-      <c r="R57">
-        <v>150</v>
-      </c>
-      <c r="S57" s="1">
+      <c r="R57" s="8">
+        <v>150</v>
+      </c>
+      <c r="S57" s="7">
         <v>41457</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="E58" s="1">
+      <c r="E58" s="7">
         <v>40844</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="8">
         <v>400</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="7">
         <v>41240</v>
       </c>
-      <c r="H58">
-        <v>150</v>
-      </c>
-      <c r="I58" s="1">
+      <c r="H58" s="8">
+        <v>150</v>
+      </c>
+      <c r="I58" s="7">
         <v>41463</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="8">
         <v>100</v>
       </c>
       <c r="K58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="O58" s="1">
+      <c r="O58" s="7">
         <v>40844</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="8">
         <v>400</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="7">
         <v>41240</v>
       </c>
-      <c r="R58">
-        <v>150</v>
-      </c>
-      <c r="S58" s="1">
+      <c r="R58" s="8">
+        <v>150</v>
+      </c>
+      <c r="S58" s="7">
         <v>41463</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="E59" s="1">
+      <c r="E59" s="7">
         <v>40849</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="8">
         <v>500</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="7">
         <v>41247</v>
       </c>
-      <c r="H59">
-        <v>150</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="H59" s="8">
+        <v>150</v>
+      </c>
+      <c r="I59" s="7">
         <v>41464</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="8">
         <v>350</v>
       </c>
       <c r="K59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="O59" s="1">
+      <c r="O59" s="7">
         <v>40849</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="8">
         <v>500</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="7">
         <v>41247</v>
       </c>
-      <c r="R59">
-        <v>150</v>
-      </c>
-      <c r="S59" s="1">
+      <c r="R59" s="8">
+        <v>150</v>
+      </c>
+      <c r="S59" s="7">
         <v>41464</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="E60" s="1">
+      <c r="E60" s="7">
         <v>40849</v>
       </c>
-      <c r="F60">
-        <v>150</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="F60" s="8">
+        <v>150</v>
+      </c>
+      <c r="G60" s="7">
         <v>41254</v>
       </c>
-      <c r="H60">
-        <v>150</v>
-      </c>
-      <c r="I60" s="1">
+      <c r="H60" s="8">
+        <v>150</v>
+      </c>
+      <c r="I60" s="7">
         <v>41470</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="8">
         <v>100</v>
       </c>
       <c r="K60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="O60" s="1">
+      <c r="O60" s="7">
         <v>40849</v>
       </c>
-      <c r="P60">
-        <v>150</v>
-      </c>
-      <c r="Q60" s="1">
+      <c r="P60" s="8">
+        <v>150</v>
+      </c>
+      <c r="Q60" s="7">
         <v>41254</v>
       </c>
-      <c r="R60">
-        <v>150</v>
-      </c>
-      <c r="S60" s="1">
+      <c r="R60" s="8">
+        <v>150</v>
+      </c>
+      <c r="S60" s="7">
         <v>41470</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="E61" s="1">
+      <c r="E61" s="7">
         <v>40865</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="8">
         <v>200</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="7">
         <v>41261</v>
       </c>
-      <c r="H61">
-        <v>150</v>
-      </c>
-      <c r="I61" s="1">
+      <c r="H61" s="8">
+        <v>150</v>
+      </c>
+      <c r="I61" s="7">
         <v>41471</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="8">
         <v>350</v>
       </c>
       <c r="K61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="O61" s="1">
+      <c r="O61" s="7">
         <v>40865</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="8">
         <v>200</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="7">
         <v>41261</v>
       </c>
-      <c r="R61">
-        <v>150</v>
-      </c>
-      <c r="S61" s="1">
+      <c r="R61" s="8">
+        <v>150</v>
+      </c>
+      <c r="S61" s="7">
         <v>41471</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="E62" s="1">
+      <c r="E62" s="7">
         <v>40865</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="8">
         <v>300</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="7">
         <v>41269</v>
       </c>
-      <c r="H62">
-        <v>150</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="H62" s="8">
+        <v>150</v>
+      </c>
+      <c r="I62" s="7">
         <v>41477</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="8">
         <v>100</v>
       </c>
       <c r="K62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="O62" s="1">
+      <c r="O62" s="7">
         <v>40865</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="8">
         <v>300</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="7">
         <v>41269</v>
       </c>
-      <c r="R62">
-        <v>150</v>
-      </c>
-      <c r="S62" s="1">
+      <c r="R62" s="8">
+        <v>150</v>
+      </c>
+      <c r="S62" s="7">
         <v>41477</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="E63" s="1">
+      <c r="E63" s="7">
         <v>40865</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="8">
         <v>200</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="9">
         <v>41274</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="13">
         <v>-19482.32</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="7">
         <v>41478</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="8">
         <v>350</v>
       </c>
       <c r="K63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="O63" s="1">
+      <c r="O63" s="7">
         <v>40865</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="8">
         <v>200</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="9">
         <v>41274</v>
       </c>
-      <c r="R63" s="7">
-        <v>-19765.895</v>
-      </c>
-      <c r="S63" s="1">
+      <c r="R63" s="13">
+        <f>-19482.32-207.9-339.38-611.5864-283.575</f>
+        <v>-20924.761400000003</v>
+      </c>
+      <c r="S63" s="7">
         <v>41478</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="E64" s="1">
+      <c r="E64" s="7">
         <v>40869</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="8">
         <v>500</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="I64" s="1">
+      <c r="I64" s="7">
         <v>41484</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="8">
         <v>-350</v>
       </c>
       <c r="K64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="O64" s="1">
+      <c r="O64" s="7">
         <v>40869</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="8">
         <v>500</v>
       </c>
       <c r="Q64" s="1"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="1">
+      <c r="S64" s="7">
         <v>41484</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="8">
         <v>-350</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="E65" s="1">
+      <c r="E65" s="7">
         <v>40876</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="8">
         <v>-250</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="I65" s="1">
+      <c r="I65" s="7">
         <v>41484</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="8">
         <v>-350</v>
       </c>
       <c r="K65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="O65" s="1">
+      <c r="O65" s="7">
         <v>40876</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="8">
         <v>-250</v>
       </c>
       <c r="Q65" s="1"/>
-      <c r="S65" s="1">
+      <c r="S65" s="7">
         <v>41484</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="8">
         <v>-350</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="E66" s="1">
+      <c r="E66" s="9">
         <v>40908</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="13">
         <v>-8844.19</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="I66" s="1">
+      <c r="I66" s="7">
         <v>41492</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="8">
         <v>350</v>
       </c>
       <c r="K66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="O66" s="1">
+      <c r="O66" s="9">
         <v>40908</v>
       </c>
-      <c r="P66" s="7">
-        <v>-9455.7764000000006</v>
+      <c r="P66" s="13">
+        <f>-8844.19-207.9-339.38-611.5864</f>
+        <v>-10003.056399999999</v>
       </c>
       <c r="Q66" s="1"/>
-      <c r="S66" s="1">
+      <c r="S66" s="7">
         <v>41492</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="8">
         <v>350</v>
       </c>
     </row>
@@ -3975,21 +4212,20 @@
       <c r="C67" s="1"/>
       <c r="E67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="I67" s="1">
+      <c r="I67" s="7">
         <v>41498</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="8">
         <v>100</v>
       </c>
       <c r="K67" s="1"/>
       <c r="M67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="8"/>
       <c r="Q67" s="1"/>
-      <c r="S67" s="1">
+      <c r="S67" s="7">
         <v>41498</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="8">
         <v>100</v>
       </c>
     </row>
@@ -3998,20 +4234,20 @@
       <c r="C68" s="1"/>
       <c r="E68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="I68" s="1">
+      <c r="I68" s="7">
         <v>41499</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="8">
         <v>350</v>
       </c>
       <c r="K68" s="1"/>
       <c r="M68" s="1"/>
       <c r="O68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="S68" s="1">
+      <c r="S68" s="7">
         <v>41499</v>
       </c>
-      <c r="T68">
+      <c r="T68" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4020,20 +4256,20 @@
       <c r="C69" s="1"/>
       <c r="E69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="I69" s="1">
+      <c r="I69" s="7">
         <v>41505</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="8">
         <v>100</v>
       </c>
       <c r="K69" s="1"/>
       <c r="M69" s="1"/>
       <c r="O69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="S69" s="1">
+      <c r="S69" s="7">
         <v>41505</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4042,20 +4278,20 @@
       <c r="C70" s="1"/>
       <c r="E70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="I70" s="1">
+      <c r="I70" s="7">
         <v>41513</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="8">
         <v>-1000</v>
       </c>
       <c r="K70" s="1"/>
       <c r="M70" s="1"/>
       <c r="O70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="S70" s="1">
+      <c r="S70" s="7">
         <v>41513</v>
       </c>
-      <c r="T70">
+      <c r="T70" s="8">
         <v>-1000</v>
       </c>
     </row>
@@ -4064,20 +4300,20 @@
       <c r="C71" s="1"/>
       <c r="E71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="I71" s="1">
+      <c r="I71" s="7">
         <v>41520</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="8">
         <v>750</v>
       </c>
       <c r="K71" s="1"/>
       <c r="M71" s="1"/>
       <c r="O71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="S71" s="1">
+      <c r="S71" s="7">
         <v>41520</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="8">
         <v>750</v>
       </c>
     </row>
@@ -4086,20 +4322,20 @@
       <c r="C72" s="1"/>
       <c r="E72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="I72" s="1">
+      <c r="I72" s="7">
         <v>41520</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="8">
         <v>-1000</v>
       </c>
       <c r="K72" s="1"/>
       <c r="M72" s="1"/>
       <c r="O72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="S72" s="1">
+      <c r="S72" s="7">
         <v>41520</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="8">
         <v>-1000</v>
       </c>
     </row>
@@ -4108,20 +4344,20 @@
       <c r="C73" s="1"/>
       <c r="E73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="I73" s="1">
+      <c r="I73" s="7">
         <v>41521</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="8">
         <v>350</v>
       </c>
       <c r="K73" s="1"/>
       <c r="M73" s="1"/>
       <c r="O73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="S73" s="1">
+      <c r="S73" s="7">
         <v>41521</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4130,20 +4366,20 @@
       <c r="C74" s="1"/>
       <c r="E74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="I74" s="1">
+      <c r="I74" s="7">
         <v>41526</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="8">
         <v>100</v>
       </c>
       <c r="K74" s="1"/>
       <c r="M74" s="1"/>
       <c r="O74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="S74" s="1">
+      <c r="S74" s="7">
         <v>41526</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4152,20 +4388,20 @@
       <c r="C75" s="1"/>
       <c r="E75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="I75" s="1">
+      <c r="I75" s="7">
         <v>41527</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="8">
         <v>350</v>
       </c>
       <c r="K75" s="1"/>
       <c r="M75" s="1"/>
       <c r="O75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="S75" s="1">
+      <c r="S75" s="7">
         <v>41527</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4174,20 +4410,20 @@
       <c r="C76" s="1"/>
       <c r="E76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="I76" s="1">
+      <c r="I76" s="7">
         <v>41533</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="8">
         <v>100</v>
       </c>
       <c r="K76" s="1"/>
       <c r="M76" s="1"/>
       <c r="O76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="S76" s="1">
+      <c r="S76" s="7">
         <v>41533</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4196,20 +4432,20 @@
       <c r="C77" s="1"/>
       <c r="E77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="I77" s="1">
+      <c r="I77" s="7">
         <v>41534</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="8">
         <v>350</v>
       </c>
       <c r="K77" s="1"/>
       <c r="M77" s="1"/>
       <c r="O77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="S77" s="1">
+      <c r="S77" s="7">
         <v>41534</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4218,20 +4454,20 @@
       <c r="C78" s="1"/>
       <c r="E78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="I78" s="1">
+      <c r="I78" s="7">
         <v>41540</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="8">
         <v>100</v>
       </c>
       <c r="K78" s="1"/>
       <c r="M78" s="1"/>
       <c r="O78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="S78" s="1">
+      <c r="S78" s="7">
         <v>41540</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4240,20 +4476,20 @@
       <c r="C79" s="1"/>
       <c r="E79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="I79" s="1">
+      <c r="I79" s="7">
         <v>41541</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="8">
         <v>350</v>
       </c>
       <c r="K79" s="1"/>
       <c r="M79" s="1"/>
       <c r="O79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="S79" s="1">
+      <c r="S79" s="7">
         <v>41541</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4262,20 +4498,20 @@
       <c r="C80" s="1"/>
       <c r="E80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="I80" s="1">
+      <c r="I80" s="7">
         <v>41543</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="8">
         <v>-1000</v>
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="1"/>
       <c r="O80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="S80" s="1">
+      <c r="S80" s="7">
         <v>41543</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="8">
         <v>-1000</v>
       </c>
     </row>
@@ -4284,20 +4520,20 @@
       <c r="C81" s="1"/>
       <c r="E81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="I81" s="1">
+      <c r="I81" s="7">
         <v>41547</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="8">
         <v>100</v>
       </c>
       <c r="K81" s="1"/>
       <c r="M81" s="1"/>
       <c r="O81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="S81" s="1">
+      <c r="S81" s="7">
         <v>41547</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4306,20 +4542,20 @@
       <c r="C82" s="1"/>
       <c r="E82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="I82" s="1">
+      <c r="I82" s="7">
         <v>41548</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="8">
         <v>350</v>
       </c>
       <c r="K82" s="1"/>
       <c r="M82" s="1"/>
       <c r="O82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="S82" s="1">
+      <c r="S82" s="7">
         <v>41548</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4328,20 +4564,20 @@
       <c r="C83" s="1"/>
       <c r="E83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="I83" s="1">
+      <c r="I83" s="7">
         <v>41554</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="8">
         <v>100</v>
       </c>
       <c r="K83" s="1"/>
       <c r="M83" s="1"/>
       <c r="O83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="S83" s="1">
+      <c r="S83" s="7">
         <v>41554</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4350,20 +4586,20 @@
       <c r="C84" s="1"/>
       <c r="E84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="I84" s="1">
+      <c r="I84" s="7">
         <v>41555</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="8">
         <v>350</v>
       </c>
       <c r="K84" s="1"/>
       <c r="M84" s="1"/>
       <c r="O84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="S84" s="1">
+      <c r="S84" s="7">
         <v>41555</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4372,20 +4608,20 @@
       <c r="C85" s="1"/>
       <c r="E85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="I85" s="1">
+      <c r="I85" s="7">
         <v>41561</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="8">
         <v>100</v>
       </c>
       <c r="K85" s="1"/>
       <c r="M85" s="1"/>
       <c r="O85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="S85" s="1">
+      <c r="S85" s="7">
         <v>41561</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4394,20 +4630,20 @@
       <c r="C86" s="1"/>
       <c r="E86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="I86" s="1">
+      <c r="I86" s="7">
         <v>41563</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="8">
         <v>350</v>
       </c>
       <c r="K86" s="1"/>
       <c r="M86" s="1"/>
       <c r="O86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="S86" s="1">
+      <c r="S86" s="7">
         <v>41563</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4416,20 +4652,20 @@
       <c r="C87" s="1"/>
       <c r="E87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="I87" s="1">
+      <c r="I87" s="7">
         <v>41565</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="8">
         <v>-600</v>
       </c>
       <c r="K87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="S87" s="1">
+      <c r="S87" s="7">
         <v>41565</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="8">
         <v>-600</v>
       </c>
     </row>
@@ -4438,20 +4674,20 @@
       <c r="C88" s="1"/>
       <c r="E88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="I88" s="1">
+      <c r="I88" s="7">
         <v>41568</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="8">
         <v>100</v>
       </c>
       <c r="K88" s="1"/>
       <c r="M88" s="1"/>
       <c r="O88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="S88" s="1">
+      <c r="S88" s="7">
         <v>41568</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4460,20 +4696,20 @@
       <c r="C89" s="1"/>
       <c r="E89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="I89" s="1">
+      <c r="I89" s="7">
         <v>41575</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="8">
         <v>100</v>
       </c>
       <c r="K89" s="1"/>
       <c r="M89" s="1"/>
       <c r="O89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="S89" s="1">
+      <c r="S89" s="7">
         <v>41575</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4482,20 +4718,20 @@
       <c r="C90" s="1"/>
       <c r="E90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="I90" s="1">
+      <c r="I90" s="7">
         <v>41593</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="8">
         <v>1000</v>
       </c>
       <c r="K90" s="1"/>
       <c r="M90" s="1"/>
       <c r="O90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="S90" s="1">
+      <c r="S90" s="7">
         <v>41593</v>
       </c>
-      <c r="T90">
+      <c r="T90" s="8">
         <v>1000</v>
       </c>
     </row>
@@ -4504,20 +4740,20 @@
       <c r="C91" s="1"/>
       <c r="E91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="I91" s="1">
+      <c r="I91" s="7">
         <v>41593</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="8">
         <v>200</v>
       </c>
       <c r="K91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="S91" s="1">
+      <c r="S91" s="7">
         <v>41593</v>
       </c>
-      <c r="T91">
+      <c r="T91" s="8">
         <v>200</v>
       </c>
     </row>
@@ -4526,20 +4762,20 @@
       <c r="C92" s="1"/>
       <c r="E92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="I92" s="1">
+      <c r="I92" s="7">
         <v>41596</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="8">
         <v>100</v>
       </c>
       <c r="K92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="S92" s="1">
+      <c r="S92" s="7">
         <v>41596</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4548,20 +4784,20 @@
       <c r="C93" s="1"/>
       <c r="E93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="I93" s="1">
+      <c r="I93" s="7">
         <v>41597</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="8">
         <v>350</v>
       </c>
       <c r="K93" s="1"/>
       <c r="M93" s="1"/>
       <c r="O93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="S93" s="1">
+      <c r="S93" s="7">
         <v>41597</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4570,20 +4806,20 @@
       <c r="C94" s="1"/>
       <c r="E94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="I94" s="1">
+      <c r="I94" s="7">
         <v>41603</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="8">
         <v>100</v>
       </c>
       <c r="K94" s="1"/>
       <c r="M94" s="1"/>
       <c r="O94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="S94" s="1">
+      <c r="S94" s="7">
         <v>41603</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4592,20 +4828,20 @@
       <c r="C95" s="1"/>
       <c r="E95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="I95" s="1">
+      <c r="I95" s="7">
         <v>41604</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="8">
         <v>350</v>
       </c>
       <c r="K95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="S95" s="1">
+      <c r="S95" s="7">
         <v>41604</v>
       </c>
-      <c r="T95">
+      <c r="T95" s="8">
         <v>350</v>
       </c>
     </row>
@@ -4614,20 +4850,20 @@
       <c r="C96" s="1"/>
       <c r="E96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="I96" s="1">
+      <c r="I96" s="7">
         <v>41605</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="8">
         <v>1500</v>
       </c>
       <c r="K96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="S96" s="1">
+      <c r="S96" s="7">
         <v>41605</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="8">
         <v>1500</v>
       </c>
     </row>
@@ -4636,20 +4872,20 @@
       <c r="C97" s="1"/>
       <c r="E97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="I97" s="1">
+      <c r="I97" s="7">
         <v>41607</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="8">
         <v>100</v>
       </c>
       <c r="K97" s="1"/>
       <c r="M97" s="1"/>
       <c r="O97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="S97" s="1">
+      <c r="S97" s="7">
         <v>41607</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4658,21 +4894,22 @@
       <c r="C98" s="1"/>
       <c r="E98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="I98" s="1">
+      <c r="I98" s="9">
         <v>41639</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="13">
         <v>-51393.95</v>
       </c>
       <c r="K98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="S98" s="1">
+      <c r="S98" s="9">
         <v>41639</v>
       </c>
-      <c r="T98" s="7">
-        <v>-51648.078999999998</v>
+      <c r="T98" s="13">
+        <f>-51393.95-207.9-339.38-611.5864-283.575-254.129</f>
+        <v>-53090.520399999994</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4684,7 +4921,6 @@
       <c r="M99" s="1"/>
       <c r="O99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="T99" s="9"/>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="1"/>
